--- a/data/SPA52/Tailing.xlsx
+++ b/data/SPA52/Tailing.xlsx
@@ -15,9 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="1">
-  <si>
-    <t>[V]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>[CPS/V_U]</t>
+  </si>
+  <si>
+    <t>[CPS/V_Th]</t>
   </si>
 </sst>
 </file>
@@ -371,208 +398,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="1">
-        <v>228.5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>229</v>
-      </c>
-      <c r="C1" s="1">
-        <v>229.5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>230</v>
-      </c>
-      <c r="E1" s="1">
-        <v>230.5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>231</v>
-      </c>
-      <c r="G1" s="1">
-        <v>231.5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>232</v>
-      </c>
-      <c r="I1" s="1">
-        <v>232.5</v>
-      </c>
-      <c r="J1" s="1">
-        <v>233</v>
-      </c>
-      <c r="K1" s="1">
-        <v>233.5</v>
-      </c>
-      <c r="L1" s="1">
-        <v>234</v>
-      </c>
-      <c r="M1" s="1">
-        <v>234.5</v>
-      </c>
-      <c r="N1" s="1">
-        <v>235</v>
-      </c>
-      <c r="O1" s="1">
-        <v>235.5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>236.5</v>
-      </c>
-      <c r="R1" s="1">
-        <v>237</v>
-      </c>
-      <c r="S1" s="1">
-        <v>237.5</v>
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>9.142857142857143E-09</v>
+        <v>0.5753969402053848</v>
       </c>
       <c r="B3">
-        <v>9.206351043286157E-09</v>
+        <v>0.6079716316307437</v>
       </c>
       <c r="C3">
-        <v>9.399775824434005E-09</v>
+        <v>0.7793984146030095</v>
       </c>
       <c r="D3">
-        <v>9.727546106091899E-09</v>
+        <v>0.9226651259411272</v>
       </c>
       <c r="E3">
-        <v>1.019407650805105E-08</v>
+        <v>1.204212873183738</v>
       </c>
       <c r="F3">
-        <v>1.080378165010267E-08</v>
+        <v>2.634320623711445</v>
       </c>
       <c r="G3">
-        <v>1.156107615203797E-08</v>
+        <v>6.401488720729881</v>
       </c>
       <c r="H3">
-        <v>1.247037463364815E-08</v>
-      </c>
-      <c r="I3">
-        <v>1.353609171472444E-08</v>
-      </c>
-      <c r="J3">
-        <v>1.476264201505803E-08</v>
-      </c>
-      <c r="K3">
-        <v>1.615444015444015E-08</v>
-      </c>
-      <c r="L3">
-        <v>1.92674059709398E-08</v>
-      </c>
-      <c r="M3">
-        <v>2.717304046042448E-08</v>
-      </c>
-      <c r="N3">
-        <v>4.214912997938312E-08</v>
-      </c>
-      <c r="O3">
-        <v>6.647346088430466E-08</v>
-      </c>
-      <c r="P3">
-        <v>1.024238195316781E-07</v>
-      </c>
-      <c r="Q3">
-        <v>1.522779922779923E-07</v>
-      </c>
-      <c r="R3">
-        <v>6.740803927713703E-07</v>
-      </c>
-      <c r="S3">
-        <v>3.706563706563707E-06</v>
+        <v>42.13002454821064</v>
       </c>
     </row>
   </sheetData>
@@ -582,108 +499,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="1">
-        <v>227.5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>228</v>
-      </c>
-      <c r="C1" s="1">
-        <v>228.5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>229</v>
-      </c>
-      <c r="E1" s="1">
-        <v>229.5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>230</v>
-      </c>
-      <c r="G1" s="1">
-        <v>230.5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>231</v>
-      </c>
-      <c r="I1" s="1">
-        <v>231.5</v>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>5.126739909822812E-08</v>
+        <v>4.461287906353845</v>
       </c>
       <c r="B3">
-        <v>5.425338357272886E-08</v>
-      </c>
-      <c r="C3">
-        <v>6.087447926649342E-08</v>
-      </c>
-      <c r="D3">
-        <v>7.138060650166152E-08</v>
-      </c>
-      <c r="E3">
-        <v>9.076316650630102E-08</v>
-      </c>
-      <c r="F3">
-        <v>1.36178449087169E-07</v>
-      </c>
-      <c r="G3">
-        <v>2.444764523747207E-07</v>
-      </c>
-      <c r="H3">
-        <v>2.768290301617371E-06</v>
-      </c>
-      <c r="I3">
-        <v>8.169307289264849E-06</v>
+        <v>8.51115306794806</v>
       </c>
     </row>
   </sheetData>
